--- a/data/unchecked/manual_collect/china/gansu/gansuCaseStatistics_20200218.xlsx
+++ b/data/unchecked/manual_collect/china/gansu/gansuCaseStatistics_20200218.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15651\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15651\Desktop\疫情数据收集\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -409,7 +409,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9343" uniqueCount="3318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9407" uniqueCount="3323">
   <si>
     <t>统计级别</t>
   </si>
@@ -10406,6 +10406,26 @@
      2月17日20时至2月18日20时，甘肃省无新增新型冠状病毒肺炎确诊病例。新增出院4例。截至2月18日20时，甘肃累计报告新型冠状病毒肺炎确诊病例91例。累计治愈出院62例，累计死亡病例2例。现有27例在定点医院进行隔离治疗，其中兰州市11例、平凉市6例、甘南州4例、白银市3例、天水市1例、定西市1例、庆阳市1例。现有重型病例4例，危重型病例1例。
 无新增疑似病例。现有疑似病例2例，其中兰州市1例、甘南州1例。
 目前，累计追踪到密切接触者4052人，已解除医学观察3417人，其余635人正在接受医学观察。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已核查</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已核查</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>手动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>林增敏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>核查通过</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -10874,8 +10894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AG21" sqref="AG21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.84375" defaultRowHeight="16.5"/>
@@ -11096,7 +11116,21 @@
       <c r="AB2" s="13" t="s">
         <v>3312</v>
       </c>
-      <c r="AD2" s="15"/>
+      <c r="AC2" s="13" t="s">
+        <v>3318</v>
+      </c>
+      <c r="AD2" s="15">
+        <v>43880.416666666664</v>
+      </c>
+      <c r="AE2" s="13" t="s">
+        <v>3320</v>
+      </c>
+      <c r="AF2" s="13" t="s">
+        <v>3321</v>
+      </c>
+      <c r="AG2" s="13" t="s">
+        <v>3322</v>
+      </c>
       <c r="AI2" s="15"/>
       <c r="AJ2" s="15"/>
     </row>
@@ -11149,6 +11183,21 @@
       <c r="AB3" s="13" t="s">
         <v>3312</v>
       </c>
+      <c r="AC3" s="13" t="s">
+        <v>3319</v>
+      </c>
+      <c r="AD3" s="20">
+        <v>43880.416666666664</v>
+      </c>
+      <c r="AE3" s="13" t="s">
+        <v>3320</v>
+      </c>
+      <c r="AF3" s="13" t="s">
+        <v>3321</v>
+      </c>
+      <c r="AG3" s="13" t="s">
+        <v>3322</v>
+      </c>
     </row>
     <row r="4" spans="1:40" ht="16" customHeight="1">
       <c r="A4" s="12">
@@ -11190,6 +11239,21 @@
       <c r="AB4" s="13" t="s">
         <v>3312</v>
       </c>
+      <c r="AC4" s="13" t="s">
+        <v>3318</v>
+      </c>
+      <c r="AD4" s="15">
+        <v>43880.416666608799</v>
+      </c>
+      <c r="AE4" s="13" t="s">
+        <v>3320</v>
+      </c>
+      <c r="AF4" s="13" t="s">
+        <v>3321</v>
+      </c>
+      <c r="AG4" s="13" t="s">
+        <v>3322</v>
+      </c>
     </row>
     <row r="5" spans="1:40" ht="16" customHeight="1">
       <c r="A5" s="13">
@@ -11237,6 +11301,21 @@
       <c r="AB5" s="13" t="s">
         <v>3312</v>
       </c>
+      <c r="AC5" s="13" t="s">
+        <v>3319</v>
+      </c>
+      <c r="AD5" s="20">
+        <v>43880.416666608799</v>
+      </c>
+      <c r="AE5" s="13" t="s">
+        <v>3320</v>
+      </c>
+      <c r="AF5" s="13" t="s">
+        <v>3321</v>
+      </c>
+      <c r="AG5" s="13" t="s">
+        <v>3322</v>
+      </c>
     </row>
     <row r="6" spans="1:40" ht="16" customHeight="1">
       <c r="A6" s="12">
@@ -11284,6 +11363,21 @@
       <c r="AB6" s="13" t="s">
         <v>3312</v>
       </c>
+      <c r="AC6" s="13" t="s">
+        <v>3318</v>
+      </c>
+      <c r="AD6" s="15">
+        <v>43880.416666608799</v>
+      </c>
+      <c r="AE6" s="13" t="s">
+        <v>3320</v>
+      </c>
+      <c r="AF6" s="13" t="s">
+        <v>3321</v>
+      </c>
+      <c r="AG6" s="13" t="s">
+        <v>3322</v>
+      </c>
     </row>
     <row r="7" spans="1:40" ht="16" customHeight="1">
       <c r="A7" s="13">
@@ -11331,6 +11425,21 @@
       <c r="AB7" s="13" t="s">
         <v>3312</v>
       </c>
+      <c r="AC7" s="13" t="s">
+        <v>3319</v>
+      </c>
+      <c r="AD7" s="20">
+        <v>43880.416666608799</v>
+      </c>
+      <c r="AE7" s="13" t="s">
+        <v>3320</v>
+      </c>
+      <c r="AF7" s="13" t="s">
+        <v>3321</v>
+      </c>
+      <c r="AG7" s="13" t="s">
+        <v>3322</v>
+      </c>
     </row>
     <row r="8" spans="1:40" ht="16" customHeight="1">
       <c r="A8" s="12">
@@ -11372,6 +11481,21 @@
       <c r="AB8" s="13" t="s">
         <v>3312</v>
       </c>
+      <c r="AC8" s="13" t="s">
+        <v>3318</v>
+      </c>
+      <c r="AD8" s="15">
+        <v>43880.416666608799</v>
+      </c>
+      <c r="AE8" s="13" t="s">
+        <v>3320</v>
+      </c>
+      <c r="AF8" s="13" t="s">
+        <v>3321</v>
+      </c>
+      <c r="AG8" s="13" t="s">
+        <v>3322</v>
+      </c>
     </row>
     <row r="9" spans="1:40" ht="16" customHeight="1">
       <c r="A9" s="13">
@@ -11419,6 +11543,21 @@
       <c r="AB9" s="13" t="s">
         <v>3312</v>
       </c>
+      <c r="AC9" s="13" t="s">
+        <v>3319</v>
+      </c>
+      <c r="AD9" s="20">
+        <v>43880.416666608799</v>
+      </c>
+      <c r="AE9" s="13" t="s">
+        <v>3320</v>
+      </c>
+      <c r="AF9" s="13" t="s">
+        <v>3321</v>
+      </c>
+      <c r="AG9" s="13" t="s">
+        <v>3322</v>
+      </c>
     </row>
     <row r="10" spans="1:40" ht="16" customHeight="1">
       <c r="A10" s="12">
@@ -11466,6 +11605,21 @@
       <c r="AB10" s="13" t="s">
         <v>3312</v>
       </c>
+      <c r="AC10" s="13" t="s">
+        <v>3318</v>
+      </c>
+      <c r="AD10" s="15">
+        <v>43880.416666608799</v>
+      </c>
+      <c r="AE10" s="13" t="s">
+        <v>3320</v>
+      </c>
+      <c r="AF10" s="13" t="s">
+        <v>3321</v>
+      </c>
+      <c r="AG10" s="13" t="s">
+        <v>3322</v>
+      </c>
     </row>
     <row r="11" spans="1:40" ht="16" customHeight="1">
       <c r="A11" s="13">
@@ -11507,6 +11661,21 @@
       <c r="AB11" s="13" t="s">
         <v>3312</v>
       </c>
+      <c r="AC11" s="13" t="s">
+        <v>3319</v>
+      </c>
+      <c r="AD11" s="20">
+        <v>43880.416666608799</v>
+      </c>
+      <c r="AE11" s="13" t="s">
+        <v>3320</v>
+      </c>
+      <c r="AF11" s="13" t="s">
+        <v>3321</v>
+      </c>
+      <c r="AG11" s="13" t="s">
+        <v>3322</v>
+      </c>
     </row>
     <row r="12" spans="1:40" ht="16" customHeight="1">
       <c r="A12" s="12">
@@ -11554,6 +11723,21 @@
       <c r="AB12" s="13" t="s">
         <v>3312</v>
       </c>
+      <c r="AC12" s="13" t="s">
+        <v>3318</v>
+      </c>
+      <c r="AD12" s="15">
+        <v>43880.416666608799</v>
+      </c>
+      <c r="AE12" s="13" t="s">
+        <v>3320</v>
+      </c>
+      <c r="AF12" s="13" t="s">
+        <v>3321</v>
+      </c>
+      <c r="AG12" s="13" t="s">
+        <v>3322</v>
+      </c>
     </row>
     <row r="13" spans="1:40" ht="16" customHeight="1">
       <c r="A13" s="13">
@@ -11601,6 +11785,21 @@
       <c r="AB13" s="13" t="s">
         <v>3312</v>
       </c>
+      <c r="AC13" s="13" t="s">
+        <v>3319</v>
+      </c>
+      <c r="AD13" s="20">
+        <v>43880.416666608799</v>
+      </c>
+      <c r="AE13" s="13" t="s">
+        <v>3320</v>
+      </c>
+      <c r="AF13" s="13" t="s">
+        <v>3321</v>
+      </c>
+      <c r="AG13" s="13" t="s">
+        <v>3322</v>
+      </c>
     </row>
     <row r="14" spans="1:40" ht="16" customHeight="1">
       <c r="A14" s="12">
@@ -11648,6 +11847,21 @@
       <c r="AB14" s="13" t="s">
         <v>3312</v>
       </c>
+      <c r="AC14" s="13" t="s">
+        <v>3318</v>
+      </c>
+      <c r="AD14" s="15">
+        <v>43880.416666608799</v>
+      </c>
+      <c r="AE14" s="13" t="s">
+        <v>3320</v>
+      </c>
+      <c r="AF14" s="13" t="s">
+        <v>3321</v>
+      </c>
+      <c r="AG14" s="13" t="s">
+        <v>3322</v>
+      </c>
     </row>
     <row r="15" spans="1:40" ht="16" customHeight="1">
       <c r="A15" s="13">
@@ -11695,6 +11909,21 @@
       <c r="AB15" s="13" t="s">
         <v>3312</v>
       </c>
+      <c r="AC15" s="13" t="s">
+        <v>3319</v>
+      </c>
+      <c r="AD15" s="20">
+        <v>43880.416666608799</v>
+      </c>
+      <c r="AE15" s="13" t="s">
+        <v>3320</v>
+      </c>
+      <c r="AF15" s="13" t="s">
+        <v>3321</v>
+      </c>
+      <c r="AG15" s="13" t="s">
+        <v>3322</v>
+      </c>
     </row>
     <row r="16" spans="1:40" ht="16" customHeight="1">
       <c r="A16" s="12">
@@ -11745,8 +11974,23 @@
       <c r="AB16" s="13" t="s">
         <v>3312</v>
       </c>
-    </row>
-    <row r="17" spans="1:28" ht="16" customHeight="1">
+      <c r="AC16" s="13" t="s">
+        <v>3318</v>
+      </c>
+      <c r="AD16" s="15">
+        <v>43880.416666608799</v>
+      </c>
+      <c r="AE16" s="13" t="s">
+        <v>3320</v>
+      </c>
+      <c r="AF16" s="13" t="s">
+        <v>3321</v>
+      </c>
+      <c r="AG16" s="13" t="s">
+        <v>3322</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" ht="16" customHeight="1">
       <c r="A17" s="13">
         <v>16</v>
       </c>
@@ -11795,8 +12039,23 @@
       <c r="AB17" s="13" t="s">
         <v>3312</v>
       </c>
-    </row>
-    <row r="18" spans="1:28">
+      <c r="AC17" s="13" t="s">
+        <v>3319</v>
+      </c>
+      <c r="AD17" s="20">
+        <v>43880.416666608799</v>
+      </c>
+      <c r="AE17" s="13" t="s">
+        <v>3320</v>
+      </c>
+      <c r="AF17" s="13" t="s">
+        <v>3321</v>
+      </c>
+      <c r="AG17" s="13" t="s">
+        <v>3322</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33">
       <c r="A18" s="12"/>
     </row>
   </sheetData>
@@ -11809,7 +12068,7 @@
     <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:R1048576">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK2:AK1048576 AE2:AE1048576 AA2:AA1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK2:AK1048576 AA2:AA1048576 AE2:AE1048576">
       <formula1>"手动,自动"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2:AC1048576">
